--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3299C5D-01FC-43AF-A8F4-B3EE5B5116C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F464F-BCB8-4899-90F9-D68BAB25E907}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
     <sheet name="Dữ liệu dự án" sheetId="5" r:id="rId2"/>
-    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId3"/>
-    <sheet name="Thời gian" sheetId="7" r:id="rId4"/>
-    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId5"/>
-    <sheet name="Tổng quan" sheetId="9" r:id="rId6"/>
-    <sheet name="Ngân sách" sheetId="8" r:id="rId7"/>
+    <sheet name="Burndown chart" sheetId="13" r:id="rId3"/>
+    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId4"/>
+    <sheet name="Thời gian" sheetId="7" r:id="rId5"/>
+    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId6"/>
+    <sheet name="Tổng quan" sheetId="9" r:id="rId7"/>
+    <sheet name="Ngân sách" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -401,6 +402,18 @@
   <si>
     <t>Tổng ngày làm dự án (ngày)</t>
   </si>
+  <si>
+    <t>Số tuần</t>
+  </si>
+  <si>
+    <t>Số công việc</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
 </sst>
 </file>
 
@@ -703,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1010,6 +1023,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1027,7 +1136,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1258,6 +1367,21 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,8 +1439,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1355,6 +1503,512 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số công việc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA8D-479D-ABEF-911B38406358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1565244239"/>
+        <c:axId val="1567314127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1565244239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Ngày</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1567314127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1567314127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Công</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> việc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1565244239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -1919,7 +2573,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4063,7 +4717,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4346,7 +5000,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4550,7 +5204,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4815,6 +5469,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5371,6 +6065,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5892,6 +7102,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Biểu đồ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBFDAC6-B1CF-48C9-91E7-23E28871B5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -5931,7 +7182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5974,7 +7225,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6017,7 +7268,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6060,7 +7311,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6442,18 +7693,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
@@ -6472,16 +7723,16 @@
       <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="32"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -6500,24 +7751,24 @@
       <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="35"/>
       <c r="L3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="85"/>
+      <c r="N3" s="90"/>
       <c r="O3" s="37"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
@@ -6532,24 +7783,24 @@
       <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="35"/>
       <c r="L4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="85"/>
+      <c r="N4" s="90"/>
       <c r="O4" s="37"/>
       <c r="P4" s="32"/>
       <c r="Q4" s="32"/>
@@ -6564,24 +7815,24 @@
       <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="35"/>
       <c r="L5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="N5" s="85"/>
+      <c r="N5" s="90"/>
       <c r="O5" s="37"/>
       <c r="P5" s="32"/>
       <c r="Q5" s="32"/>
@@ -6596,24 +7847,24 @@
       <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
       <c r="K6" s="35"/>
       <c r="L6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="84" t="s">
+      <c r="M6" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="85"/>
+      <c r="N6" s="90"/>
       <c r="O6" s="37"/>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -6628,24 +7879,24 @@
       <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="35"/>
       <c r="L7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="91">
         <v>43508</v>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="92"/>
       <c r="O7" s="37"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
@@ -6660,16 +7911,16 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="32"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -6688,16 +7939,16 @@
       <c r="Z8" s="32"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="88"/>
       <c r="K9" s="32"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -6716,16 +7967,16 @@
       <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="88"/>
       <c r="K10" s="32"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -6744,23 +7995,23 @@
       <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="90"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -6774,16 +8025,16 @@
       <c r="Z11" s="32"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
       <c r="K12" s="35"/>
       <c r="L12" s="40" t="s">
         <v>32</v>
@@ -6810,16 +8061,16 @@
       <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="35"/>
       <c r="L13" s="41" t="s">
         <v>36</v>
@@ -6846,16 +8097,16 @@
       <c r="Z13" s="32"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="88"/>
       <c r="K14" s="35"/>
       <c r="L14" s="45"/>
       <c r="M14" s="46"/>
@@ -6874,16 +8125,16 @@
       <c r="Z14" s="32"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="83"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
       <c r="K15" s="35"/>
       <c r="L15" s="45"/>
       <c r="M15" s="46"/>
@@ -6902,16 +8153,16 @@
       <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
       <c r="K16" s="35"/>
       <c r="L16" s="47"/>
       <c r="M16" s="48"/>
@@ -6930,16 +8181,16 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="88"/>
       <c r="K17" s="35"/>
       <c r="L17" s="47"/>
       <c r="M17" s="48"/>
@@ -6958,16 +8209,16 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
       <c r="K18" s="35"/>
       <c r="L18" s="47"/>
       <c r="M18" s="48"/>
@@ -6986,16 +8237,16 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="88"/>
       <c r="K19" s="35"/>
       <c r="L19" s="47"/>
       <c r="M19" s="48"/>
@@ -7014,16 +8265,16 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="88"/>
       <c r="K20" s="35"/>
       <c r="L20" s="47"/>
       <c r="M20" s="48"/>
@@ -34502,8 +35753,8 @@
   </sheetPr>
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -34693,7 +35944,7 @@
       <c r="J7" s="20">
         <v>19</v>
       </c>
-      <c r="L7" s="93" t="s">
+      <c r="L7" s="98" t="s">
         <v>60</v>
       </c>
     </row>
@@ -34729,7 +35980,7 @@
       <c r="J8" s="20">
         <v>16</v>
       </c>
-      <c r="L8" s="93"/>
+      <c r="L8" s="98"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="63">
@@ -34763,7 +36014,7 @@
       <c r="J9" s="20">
         <v>27</v>
       </c>
-      <c r="L9" s="93"/>
+      <c r="L9" s="98"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="63">
@@ -34797,7 +36048,7 @@
       <c r="J10" s="20">
         <v>22</v>
       </c>
-      <c r="L10" s="93"/>
+      <c r="L10" s="98"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1">
       <c r="A11" s="63">
@@ -34831,7 +36082,7 @@
       <c r="J11" s="20">
         <v>23</v>
       </c>
-      <c r="L11" s="93"/>
+      <c r="L11" s="98"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1">
       <c r="A12" s="63">
@@ -34865,7 +36116,7 @@
       <c r="J12" s="20">
         <v>15</v>
       </c>
-      <c r="L12" s="93"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1">
       <c r="A13" s="63">
@@ -34899,7 +36150,7 @@
       <c r="J13" s="20">
         <v>19</v>
       </c>
-      <c r="L13" s="93"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1">
       <c r="A14" s="63">
@@ -34933,7 +36184,7 @@
       <c r="J14" s="20">
         <v>34</v>
       </c>
-      <c r="L14" s="93"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1">
       <c r="A15" s="63">
@@ -35629,10 +36880,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="92"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11">
         <v>43899</v>
@@ -35661,15 +36912,6 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1">
-      <c r="D38" s="3">
-        <v>24</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4</v>
-      </c>
-      <c r="F38" s="3">
-        <v>20</v>
-      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="26"/>
       <c r="J38" s="4"/>
@@ -35725,11 +36967,11 @@
       <c r="C42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="94" t="s">
+      <c r="E42" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="95"/>
-      <c r="G42" s="96"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="101"/>
       <c r="H42" s="4"/>
       <c r="I42" s="26"/>
       <c r="J42" s="4"/>
@@ -35932,10 +37174,10 @@
       <c r="C57" s="15">
         <v>7</v>
       </c>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="97" t="s">
+      <c r="F57" s="78" t="s">
         <v>102</v>
       </c>
       <c r="G57" s="72" t="s">
@@ -36462,6 +37704,371 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A6C3CC-FCEA-4CDC-BE13-D90504986D8E}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5">
+      <c r="A1" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="102">
+        <v>1</v>
+      </c>
+      <c r="B2" s="80">
+        <v>9</v>
+      </c>
+      <c r="C2" s="108">
+        <v>3</v>
+      </c>
+      <c r="D2" s="80">
+        <v>28</v>
+      </c>
+      <c r="E2" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="103"/>
+      <c r="B3" s="80">
+        <v>10</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="80">
+        <v>27</v>
+      </c>
+      <c r="E3" s="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="103"/>
+      <c r="B4" s="80">
+        <v>11</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="80">
+        <v>26</v>
+      </c>
+      <c r="E4" s="82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="103"/>
+      <c r="B5" s="80">
+        <v>12</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="80">
+        <v>25</v>
+      </c>
+      <c r="E5" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="103"/>
+      <c r="B6" s="80">
+        <v>13</v>
+      </c>
+      <c r="C6" s="109"/>
+      <c r="D6" s="80">
+        <v>24</v>
+      </c>
+      <c r="E6" s="82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="103"/>
+      <c r="B7" s="80">
+        <v>14</v>
+      </c>
+      <c r="C7" s="109"/>
+      <c r="D7" s="80">
+        <v>23</v>
+      </c>
+      <c r="E7" s="82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="103"/>
+      <c r="B8" s="80">
+        <v>15</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="80">
+        <v>22</v>
+      </c>
+      <c r="E8" s="82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="103"/>
+      <c r="B9" s="80">
+        <v>16</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="80">
+        <v>21</v>
+      </c>
+      <c r="E9" s="82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="104"/>
+      <c r="B10" s="80">
+        <v>17</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="80">
+        <v>20</v>
+      </c>
+      <c r="E10" s="82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="105">
+        <v>2</v>
+      </c>
+      <c r="B11" s="80">
+        <v>18</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="80">
+        <v>19</v>
+      </c>
+      <c r="E11" s="82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="106"/>
+      <c r="B12" s="80">
+        <v>19</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="80">
+        <v>18</v>
+      </c>
+      <c r="E12" s="82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="106"/>
+      <c r="B13" s="80">
+        <v>20</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="80">
+        <v>17</v>
+      </c>
+      <c r="E13" s="82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="106"/>
+      <c r="B14" s="80">
+        <v>21</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="80">
+        <v>16</v>
+      </c>
+      <c r="E14" s="82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="106"/>
+      <c r="B15" s="80">
+        <v>22</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="80">
+        <v>15</v>
+      </c>
+      <c r="E15" s="82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="106"/>
+      <c r="B16" s="80">
+        <v>23</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="80">
+        <v>14</v>
+      </c>
+      <c r="E16" s="82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="106"/>
+      <c r="B17" s="80">
+        <v>24</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="80">
+        <v>13</v>
+      </c>
+      <c r="E17" s="82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="106"/>
+      <c r="B18" s="80">
+        <v>25</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="80">
+        <v>12</v>
+      </c>
+      <c r="E18" s="82">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="106"/>
+      <c r="B19" s="80">
+        <v>26</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="80">
+        <v>11</v>
+      </c>
+      <c r="E19" s="82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="106"/>
+      <c r="B20" s="80">
+        <v>27</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="80">
+        <v>9</v>
+      </c>
+      <c r="E20" s="82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="107">
+        <v>3</v>
+      </c>
+      <c r="B21" s="80">
+        <v>28</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="80">
+        <v>7</v>
+      </c>
+      <c r="E21" s="82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="107"/>
+      <c r="B22" s="80">
+        <v>29</v>
+      </c>
+      <c r="C22" s="109"/>
+      <c r="D22" s="80">
+        <v>5</v>
+      </c>
+      <c r="E22" s="82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="107"/>
+      <c r="B23" s="80">
+        <v>30</v>
+      </c>
+      <c r="C23" s="109"/>
+      <c r="D23" s="80">
+        <v>3</v>
+      </c>
+      <c r="E23" s="82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="107"/>
+      <c r="B24" s="80">
+        <v>31</v>
+      </c>
+      <c r="C24" s="110"/>
+      <c r="D24" s="80">
+        <v>1</v>
+      </c>
+      <c r="E24" s="82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="107"/>
+      <c r="B25" s="80">
+        <v>1</v>
+      </c>
+      <c r="C25" s="80">
+        <v>4</v>
+      </c>
+      <c r="D25" s="80">
+        <v>0</v>
+      </c>
+      <c r="E25" s="82">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C2:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1D594C-F41E-4FF5-B325-6EB3BED148BF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36476,7 +38083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36491,7 +38098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36506,7 +38113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -36521,7 +38128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203F464F-BCB8-4899-90F9-D68BAB25E907}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B20221-0581-487F-AA76-0A20ABB93EB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
@@ -35753,8 +35753,8 @@
   </sheetPr>
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -37167,7 +37167,7 @@
       <c r="I56" s="26"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="2:10" ht="25.5">
+    <row r="57" spans="2:10" ht="38.25">
       <c r="B57" s="31" t="s">
         <v>20</v>
       </c>
@@ -37707,7 +37707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A6C3CC-FCEA-4CDC-BE13-D90504986D8E}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 2/PM_Module2_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B20221-0581-487F-AA76-0A20ABB93EB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399FDE36-EF18-4E46-B0C0-A9DCF64B39FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Ngày</t>
+  </si>
+  <si>
+    <t>Tổng ngày làm dự án kế hoạch (ngày)</t>
+  </si>
+  <si>
+    <t>Thời gian nghỉ lễ (Tết)</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1465,6 +1471,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -35753,8 +35774,8 @@
   </sheetPr>
   <dimension ref="A2:T103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -37167,7 +37188,7 @@
       <c r="I56" s="26"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="2:10" ht="38.25">
+    <row r="57" spans="2:10" ht="25.5">
       <c r="B57" s="31" t="s">
         <v>20</v>
       </c>
@@ -37213,12 +37234,21 @@
       <c r="I59" s="26"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1">
+    <row r="60" spans="2:10" ht="38.25">
       <c r="B60" s="73" t="s">
         <v>85</v>
       </c>
       <c r="C60" s="7">
         <v>8</v>
+      </c>
+      <c r="E60" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="112" t="s">
+        <v>103</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="26"/>
@@ -37230,6 +37260,16 @@
       </c>
       <c r="C61" s="7">
         <v>7</v>
+      </c>
+      <c r="E61" s="113">
+        <v>25</v>
+      </c>
+      <c r="F61" s="114">
+        <v>4</v>
+      </c>
+      <c r="G61" s="115">
+        <f>SUM(E61-F61)</f>
+        <v>21</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="26"/>
